--- a/Day 4/20221204 - AoC 22 - Day 4.xlsx
+++ b/Day 4/20221204 - AoC 22 - Day 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD - Data/Edgeware Data/AoC22/Day 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F22B90-BF72-A64C-AAD0-FB684CFC12A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1EE154-DB24-8741-AA9E-DE1D7A34AB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="-2620" windowWidth="36100" windowHeight="19560" xr2:uid="{3DC1E4C2-913D-8746-A689-4EF5FAB0CC8D}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
